--- a/biology/Botanique/Cyprès_de_Leyland/Cyprès_de_Leyland.xlsx
+++ b/biology/Botanique/Cyprès_de_Leyland/Cyprès_de_Leyland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Leyland</t>
+          <t>Cyprès_de_Leyland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cyprès de Leyland, Cupressus ×leylandii, est une espèce hybride d’arbres de la famille des Cupressaceae, largement cultivée notamment pour constituer des haies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Leyland</t>
+          <t>Cyprès_de_Leyland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine et classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre à croissance très rapide est un hybride entre le Cyprès de Lambert (Cupressus macrocarpa) et le Cyprès de Nootka (Cupressus nootkatensis). Il est apparu en Grande-Bretagne à la fin du XIXe siècle.
 L'hybridation à l'origine du Cyprès de Leyland s'est produite à plusieurs reprises, en une vingtaine d'occasions indépendantes, toujours par pollinisation ouverte. Cela montre que les deux espèces parentes sont très compatibles et apparentées de près. Deux autres hybrides similaires se seraient aussi produits entre le Cyprès de Nootka d'une part et deux autres espèces de Cupressus : Cupressus ×notabilis (Cupressus glabra × Cupressus nootkatensis) et Cupressus ×ovensii (Cupressus lusitanica × Cupressus nootkatensis).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Leyland</t>
+          <t>Cyprès_de_Leyland</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>×Cuprocyparis leylandii (A.B.Jacks. &amp; Dallim.) Farjon 2002.
 ×Cupressocyparis leylandii (A.B.Jacks. &amp; Dallim.) Dallim (avant 1993, lorsque le cyprès de Nootka était placé parmi les Chamaecyparis).</t>
